--- a/data/case1/11/Q_device_13.xlsx
+++ b/data/case1/11/Q_device_13.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.024009864092971255</v>
+        <v>-0.017766216615811729</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.024011346527337687</v>
+        <v>-0.017767065727291566</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0042827262216504972</v>
+        <v>-0.037945621418336691</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0043470879064833358</v>
+        <v>-0.03785085309071267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0038448334037637648</v>
+        <v>-0.0018129233589202719</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.003862511937616624</v>
+        <v>-0.0018112501549648527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.043974601514678323</v>
+        <v>-0.01992064693646025</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.044069363038381021</v>
+        <v>-0.030519860656117302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.074851738684340446</v>
+        <v>-0.029991570952098208</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.06392358100331394</v>
+        <v>-0.029990885721744263</v>
       </c>
     </row>
   </sheetData>
